--- a/vDSC Roaming Partner Definition Input File.xlsx
+++ b/vDSC Roaming Partner Definition Input File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ericsson-my.sharepoint.com/personal/biswajit_saha_ericsson_com/Documents/Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="11_F25DC773A252ABDACC10483791DE641A5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D10418AA-4F08-49B9-A466-57193BF9CA6F}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="11_F25DC773A252ABDACC10483791DE641A5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EFFB367-CD1A-4F87-A76E-7A6E41BC731B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>DscRoamingPartner</t>
   </si>
@@ -82,16 +82,77 @@
   </si>
   <si>
     <t>routingCaseReference</t>
+  </si>
+  <si>
+    <t>mnc001_mcc247</t>
+  </si>
+  <si>
+    <t>UNLOCKED</t>
+  </si>
+  <si>
+    <t>3gpp:S6a,3gpp:S6d</t>
+  </si>
+  <si>
+    <t>Telia_PG</t>
+  </si>
+  <si>
+    <t>Sample_Sec_Prof</t>
+  </si>
+  <si>
+    <t>9132,9133</t>
+  </si>
+  <si>
+    <t>242006,242014,240003</t>
+  </si>
+  <si>
+    <t>epc.mnc001.mcc247.3gppnetwork.org</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>TH_Profile.descramble</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>TH_Profile.scramble</t>
+  </si>
+  <si>
+    <t>DscToPartner</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>Roaming_RC</t>
+  </si>
+  <si>
+    <t>mnc042_mcc240</t>
+  </si>
+  <si>
+    <t>epc.mnc042.mcc240.3gppnetwork.org</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,10 +166,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -117,9 +204,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -415,86 +507,226 @@
     <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.6640625" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>24042</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
